--- a/data/discussion/6_metrics.xlsx
+++ b/data/discussion/6_metrics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1BE25-D17A-4A53-B6DC-10BDA524D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA9D45-7669-4D1D-8447-57153910977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="organization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="103">
   <si>
     <t>all</t>
   </si>
@@ -198,13 +199,160 @@
   </si>
   <si>
     <t>76 works</t>
+  </si>
+  <si>
+    <t>appearance: related to loop closure detection</t>
+  </si>
+  <si>
+    <t>precision-recall plots</t>
+  </si>
+  <si>
+    <t>precision = f(recall); evaluation of the algorithm performance over</t>
+  </si>
+  <si>
+    <t>area under the curve (AUC)</t>
+  </si>
+  <si>
+    <t>higher the value, the better the classifier is (in terms of loop detection / place recognition)</t>
+  </si>
+  <si>
+    <t>TP / (TP + FP), where TP = true positives and FP = false positives; ~accurate results, low false positive rate</t>
+  </si>
+  <si>
+    <t>TP / (TP + FN), where TP = true positives and FN = false negatives; ~returning majority all positive results, low false negative rate</t>
+  </si>
+  <si>
+    <t>actual result = f(predicted), e.g., see loop closure performance on img index predicted = f(img index), or location classification result true result = f(predicted results), etc.</t>
+  </si>
+  <si>
+    <t>#successful localizations / #attemps; (TP + TN) / (P + N), where TP = true positive, TN = true negative, P = positive, and N = negative</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>2 / ((1/recall) x (1/precision)); 2 x (precision x recall) / (precision + recall); way of combining the precision and recall metrics of the method, harmonic mean of the moethod's precision and recall; measure of the method's accuracy over the experiments</t>
+  </si>
+  <si>
+    <t>(1+beta^2) x (precision x recall) / ((beta^2) + recall), allow weighting precision or recall highly if it is more important for the method's use case</t>
+  </si>
+  <si>
+    <t>dynamic: metrics focus on the influence of dynamic objects on the method's results</t>
+  </si>
+  <si>
+    <t>ATE (absolute trajectory error)</t>
+  </si>
+  <si>
+    <t>pose error over time</t>
+  </si>
+  <si>
+    <t>error(x,y,z,rot,…) = f(t)</t>
+  </si>
+  <si>
+    <t>TUM dataset: associate estimated poses w/ gt using time &gt; align true and estimated trajectory using SVD &gt; compute difference of each pair of poses &gt; output mean / median / std</t>
+  </si>
+  <si>
+    <t>RAWSEEDS: associate estimated poses w/ gt using time (possibly, require interpolation when ti != tj) &gt; compute translation error in distance (||xi - xi,gt|| and std</t>
+  </si>
+  <si>
+    <t>mean, std, RMSE errors</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>(1/N) x sum(||e||2)</t>
+  </si>
+  <si>
+    <t>sqrt( (1/N) x sum(( ||e||2 - e_mean )^2) )</t>
+  </si>
+  <si>
+    <t>sqrt((1/N) x sum(||e||2))</t>
+  </si>
+  <si>
+    <t>covariance</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>eigen values</t>
+  </si>
+  <si>
+    <t>uncertainty matrix of the robot's pose over the experiment</t>
+  </si>
+  <si>
+    <t>sparsity: very related with computational (given that sparse map can be evaluated on the computational performance's improvement)</t>
+  </si>
+  <si>
+    <t>eigenvalues computed from the covariance matrix &gt; higer values mean higher uncertainty (hochdorfer)</t>
+  </si>
+  <si>
+    <t>smallest eigenvalue of the inverse covariance matrix resulting from scan matching &gt; if value large the corresponding uncertainty small (biber-duckett)</t>
+  </si>
+  <si>
+    <t>sparse pose graph</t>
+  </si>
+  <si>
+    <t>computational: also very relatable to online performance, evaluate computational costs of the method's execution (time, memory, communication, etc.)</t>
+  </si>
+  <si>
+    <t>CPU / memory usage</t>
+  </si>
+  <si>
+    <t>evaluation of the impact on pose error when using sparse map</t>
+  </si>
+  <si>
+    <t>#nodes = f(t); node reduction ratio</t>
+  </si>
+  <si>
+    <t>#edges = f(t); edge reduction ratio</t>
+  </si>
+  <si>
+    <t>execution time = f(t); execution time of the method per iteration / module / total</t>
+  </si>
+  <si>
+    <t>memory = f(t); total memory required</t>
+  </si>
+  <si>
+    <t>%CPU / memory used when execution the algorithm (probably, not as useful as the two above</t>
+  </si>
+  <si>
+    <t>#map points = f(t); points reduction ratio</t>
+  </si>
+  <si>
+    <t>gamma index = #existing edges / #possible edges; 1 ~ complete connected graph (kretzschmar-et-al:2010:2)</t>
+  </si>
+  <si>
+    <t>KLD (Kullback-Leibler Divergence)</t>
+  </si>
+  <si>
+    <t>relative entropy, ~difference between two probabilistic distributions; in information theory, measure of divergence; e.g., 0 would mean 2 dist. Have identifical information</t>
+  </si>
+  <si>
+    <t>KLD = f(node reduction ratio), comparison with another method (carlevaris-bianco-et-al:2014:2347571)</t>
+  </si>
+  <si>
+    <t>has the formula for computing KLD between two k-dimensional normal distributions, "KLD measures the diff between 2 dist up to 3rd moment &gt; errors in covariance as well as mean are included", KLD = f(t) (williams-et-al:2014:0278364914531056)</t>
+  </si>
+  <si>
+    <t>has the formula for computing KLD of multivariate normal dist., KLD(t) (mazuran-et-al:2016:0278364915581629)</t>
+  </si>
+  <si>
+    <t>cites [Kullback, S., &amp; Leibler, R. A. (1951). On information and sufficiency. The Annals of Mathematical Statistics, 22(1), 79–86], KLD = f(session) (ozog-et-al:2016:21582)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +373,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,10 +420,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,7 +463,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -291,42 +487,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -346,24 +512,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -382,6 +536,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -400,6 +560,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -419,24 +585,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -455,6 +609,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -473,6 +633,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -492,6 +658,60 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -510,42 +730,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -565,6 +755,60 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -583,42 +827,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -638,6 +852,60 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -656,42 +924,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -711,6 +949,84 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -730,6 +1046,60 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -748,6 +1118,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -766,10 +1142,41 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -803,42 +1210,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -853,15 +1224,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0FE5511-2FC8-4E65-9792-421D2B63796F}" name="Table1" displayName="Table1" ref="C1:D37" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0FE5511-2FC8-4E65-9792-421D2B63796F}" name="Table1" displayName="Table1" ref="C1:D37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="C1:D37" xr:uid="{B0FE5511-2FC8-4E65-9792-421D2B63796F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D37">
     <sortCondition descending="1" ref="D1:D37"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E36E1705-8910-4200-8189-11A1224DA8E1}" name="unique" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{B6B092EE-44B9-45EA-A692-65339B09C273}" name="#count" dataDxfId="24">
-      <calculatedColumnFormula>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E36E1705-8910-4200-8189-11A1224DA8E1}" name="unique" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B6B092EE-44B9-45EA-A692-65339B09C273}" name="#count" dataDxfId="2">
+      <calculatedColumnFormula>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -869,15 +1240,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}" name="Table2" displayName="Table2" ref="H4:I26" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
-  <autoFilter ref="H4:I26" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:I26">
-    <sortCondition descending="1" ref="I4:I26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}" name="Table2" displayName="Table2" ref="H4:I25" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="H4:I25" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:I25">
+    <sortCondition descending="1" ref="I4:I25"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3D1727C5-D5F3-4A25-8DDA-DDA7E5CA9157}" name="unique" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{9894E244-2CF5-496E-BA07-A1D1784419BB}" name="#count" dataDxfId="25">
-      <calculatedColumnFormula>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3D1727C5-D5F3-4A25-8DDA-DDA7E5CA9157}" name="unique" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9894E244-2CF5-496E-BA07-A1D1784419BB}" name="#count" dataDxfId="28">
+      <calculatedColumnFormula>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -885,14 +1256,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3084BDF-1C0A-4106-B028-465A58D0493A}" name="Table3" displayName="Table3" ref="M4:N27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3084BDF-1C0A-4106-B028-465A58D0493A}" name="Table3" displayName="Table3" ref="M4:N27" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="M4:N27" xr:uid="{D3084BDF-1C0A-4106-B028-465A58D0493A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M5:N27">
     <sortCondition descending="1" ref="N4:N27"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9B044373-3F20-4298-BB95-F2ECA8AAAD35}" name="unique" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{408CE44E-0666-4CB7-9ED8-BC5D638C8525}" name="#count" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{9B044373-3F20-4298-BB95-F2ECA8AAAD35}" name="unique" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{408CE44E-0666-4CB7-9ED8-BC5D638C8525}" name="#count" dataDxfId="24">
       <calculatedColumnFormula>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -901,15 +1272,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}" name="Table4" displayName="Table4" ref="R4:S29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}" name="Table4" displayName="Table4" ref="R4:S29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="R4:S29" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R5:S29">
     <sortCondition descending="1" ref="S4:S29"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7FD8188D-4FD1-46CE-8D08-CEC4947CB28C}" name="unique" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C24A7A7D-82E1-4494-9FE7-C2807013810B}" name="#count" dataDxfId="16">
-      <calculatedColumnFormula>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7FD8188D-4FD1-46CE-8D08-CEC4947CB28C}" name="unique" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C24A7A7D-82E1-4494-9FE7-C2807013810B}" name="#count" dataDxfId="20">
+      <calculatedColumnFormula>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -917,14 +1288,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}" name="Table5" displayName="Table5" ref="W4:X20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}" name="Table5" displayName="Table5" ref="W4:X20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="W4:X20" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W5:X20">
     <sortCondition descending="1" ref="X4:X20"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D86380CA-6157-4666-B5F1-3134864032B6}" name="unique" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{D9BDA229-3E96-4B8C-8275-066A22271C6E}" name="#count" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{D86380CA-6157-4666-B5F1-3134864032B6}" name="unique" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D9BDA229-3E96-4B8C-8275-066A22271C6E}" name="#count" dataDxfId="16">
       <calculatedColumnFormula>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -933,14 +1304,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{30D983B9-6302-4C74-858B-0140504DF6E3}" name="Table6" displayName="Table6" ref="AB4:AC18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{30D983B9-6302-4C74-858B-0140504DF6E3}" name="Table6" displayName="Table6" ref="AB4:AC18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="AB4:AC18" xr:uid="{30D983B9-6302-4C74-858B-0140504DF6E3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AB5:AC18">
     <sortCondition descending="1" ref="AC4:AC18"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6B058F42-8679-459A-95E4-9B1CF8B5C283}" name="unique" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0BACEAF3-23A3-47F6-9557-A71B6912F0BD}" name="#count" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{6B058F42-8679-459A-95E4-9B1CF8B5C283}" name="unique" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{0BACEAF3-23A3-47F6-9557-A71B6912F0BD}" name="#count" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -949,14 +1320,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11FC0AA2-AC0B-49F7-8271-2FE1EC6647C4}" name="Table7" displayName="Table7" ref="AH4:AI10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11FC0AA2-AC0B-49F7-8271-2FE1EC6647C4}" name="Table7" displayName="Table7" ref="AH4:AI10" totalsRowShown="0" headerRowDxfId="31" dataDxfId="7">
   <autoFilter ref="AH4:AI10" xr:uid="{11FC0AA2-AC0B-49F7-8271-2FE1EC6647C4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AH5:AI10">
     <sortCondition descending="1" ref="AI4:AI10"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5310725C-63A7-4B3A-98F0-B11E46CC917C}" name="unique" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E68AE35A-D9DC-4279-A0B7-F6033FF3F747}" name="#count" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5310725C-63A7-4B3A-98F0-B11E46CC917C}" name="unique" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E68AE35A-D9DC-4279-A0B7-F6033FF3F747}" name="#count" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -965,15 +1336,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{857367F9-CD50-4D2D-9B38-0204D8398338}" name="Table8" displayName="Table8" ref="AN4:AO38" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{857367F9-CD50-4D2D-9B38-0204D8398338}" name="Table8" displayName="Table8" ref="AN4:AO38" totalsRowShown="0" headerRowDxfId="30" dataDxfId="4">
   <autoFilter ref="AN4:AO38" xr:uid="{857367F9-CD50-4D2D-9B38-0204D8398338}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AN5:AO38">
     <sortCondition descending="1" ref="AO4:AO38"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7255F770-168E-4ED8-B0CA-122C507B8875}" name="unique" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E4C1C951-E2D8-42C8-83E4-1DDA9C68EEE3}" name="#count" dataDxfId="0">
-      <calculatedColumnFormula>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7255F770-168E-4ED8-B0CA-122C507B8875}" name="unique" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E4C1C951-E2D8-42C8-83E4-1DDA9C68EEE3}" name="#count" dataDxfId="5">
+      <calculatedColumnFormula>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1243,9 +1614,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP340"/>
+  <dimension ref="A1:AP338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1296,59 +1667,61 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
       <c r="AP1" s="2"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>70</v>
       </c>
       <c r="F2" s="2"/>
@@ -1371,7 +1744,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -1391,72 +1764,72 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="2"/>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AO3" s="2"/>
@@ -1466,21 +1839,21 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="2"/>
@@ -1488,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="O4" s="2"/>
@@ -1499,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="T4" s="2"/>
@@ -1510,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Y4" s="2"/>
@@ -1521,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
+      <c r="AB4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AF4" s="2" t="s">
@@ -1555,81 +1928,81 @@
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="R5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>20</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="W5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="AB5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>12</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="1">
+      <c r="AH5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="4">
         <f>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AN5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>67</v>
       </c>
     </row>
@@ -1637,81 +2010,81 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>18</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>20</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="W6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>5</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="1">
+      <c r="AB6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>12</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="4">
         <f>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AN6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>46</v>
       </c>
     </row>
@@ -1719,81 +2092,81 @@
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D7" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="M7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="R7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>16</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AB7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="4">
         <f>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AN7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>32</v>
       </c>
     </row>
@@ -1801,81 +2174,81 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D8" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I8" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="R8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>9</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="W8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="1">
+      <c r="AB8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="4">
         <f>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO8" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AN8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO8" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>24</v>
       </c>
     </row>
@@ -1883,81 +2256,81 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D9" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I9" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="M9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="R9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>8</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="W9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI9" s="1">
+      <c r="AH9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="4">
         <f>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO9" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AN9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>19</v>
       </c>
     </row>
@@ -1965,81 +2338,81 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D10" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S10" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AH10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="4">
         <f>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AN10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AO10" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO10" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>16</v>
       </c>
     </row>
@@ -2047,60 +2420,60 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D11" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I11" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S11" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AB11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
@@ -2110,11 +2483,11 @@
       <c r="AL11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AN11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AO11" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO11" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>13</v>
       </c>
     </row>
@@ -2122,71 +2495,71 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D12" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S12" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="AL12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="1" t="s">
+      <c r="AN12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AO12" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO12" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>9</v>
       </c>
     </row>
@@ -2194,71 +2567,71 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D13" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I13" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S13" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="AL13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AN13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AO13" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO13" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
     </row>
@@ -2266,71 +2639,71 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D14" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I14" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S14" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AB14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AN14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AO14" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO14" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
     </row>
@@ -2338,71 +2711,71 @@
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D15" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I15" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S15" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AN15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AO15" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO15" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
     </row>
@@ -2410,71 +2783,71 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D16" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I16" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S16" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
-        <v>2</v>
+      <c r="S16" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AN16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AO16" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO16" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
     </row>
@@ -2482,71 +2855,71 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D17" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I17" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S17" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="1">
+      <c r="AB17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN17" s="1" t="s">
+      <c r="AN17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AO17" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO17" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>5</v>
       </c>
     </row>
@@ -2554,71 +2927,71 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
-        <v>3</v>
+      <c r="D18" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I18" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S18" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="4">
         <f>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="AL18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AN18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AO18" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO18" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2626,50 +2999,50 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D19" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="I19" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S19" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="W19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
@@ -2679,11 +3052,11 @@
       <c r="AL19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AN19" s="1" t="s">
+      <c r="AN19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AO19" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO19" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
     </row>
@@ -2691,50 +3064,50 @@
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D20" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S20" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="4">
         <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
@@ -2744,53 +3117,53 @@
       <c r="AL20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AN20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AO20" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
-        <v>3</v>
+      <c r="AO20" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D21" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="R21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -2802,11 +3175,11 @@
       <c r="AL21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AN21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AO21" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO21" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
     </row>
@@ -2814,41 +3187,41 @@
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D22" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S22" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -2860,11 +3233,11 @@
       <c r="AL22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AN22" s="1" t="s">
+      <c r="AN22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AO22" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO22" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2872,41 +3245,41 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D23" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S23" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -2918,11 +3291,11 @@
       <c r="AL23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AN23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AO23" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO23" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2930,41 +3303,41 @@
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D24" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S24" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -2976,11 +3349,11 @@
       <c r="AL24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AN24" s="1" t="s">
+      <c r="AN24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AO24" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO24" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
     </row>
@@ -2988,41 +3361,41 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
+      <c r="H25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4">
+        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S25" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -3034,11 +3407,11 @@
       <c r="AL25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AN25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AN25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3046,41 +3419,34 @@
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D26" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1">
-        <f>COUNTIF(F$5:F$167,Table2[[#This Row],[unique]])</f>
-        <v>1</v>
-      </c>
       <c r="K26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S26" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U26" s="1" t="s">
@@ -3092,11 +3458,11 @@
       <c r="AL26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AN26" s="1" t="s">
+      <c r="AN26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AO26" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO26" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3104,11 +3470,11 @@
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D27" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3117,21 +3483,21 @@
       <c r="K27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="4">
         <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S27" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S27" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U27" s="1" t="s">
@@ -3143,11 +3509,11 @@
       <c r="AL27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN27" s="1" t="s">
+      <c r="AN27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AO27" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO27" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3155,15 +3521,15 @@
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D28" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>2</v>
@@ -3171,11 +3537,11 @@
       <c r="P28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S28" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
@@ -3187,11 +3553,11 @@
       <c r="AL28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AN28" s="1" t="s">
+      <c r="AN28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AO28" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO28" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3199,15 +3565,15 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D29" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>22</v>
@@ -3215,11 +3581,11 @@
       <c r="P29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S29" s="1">
-        <f>COUNTIF(P$5:P$125,Table4[[#This Row],[unique]])</f>
+      <c r="S29" s="4">
+        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U29" s="1" t="s">
@@ -3231,11 +3597,11 @@
       <c r="AL29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN29" s="1" t="s">
+      <c r="AN29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AO29" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO29" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3243,15 +3609,15 @@
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D30" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>4</v>
@@ -3268,11 +3634,11 @@
       <c r="AL30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN30" s="1" t="s">
+      <c r="AN30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AO30" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO30" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3280,15 +3646,15 @@
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D31" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>2</v>
@@ -3305,11 +3671,11 @@
       <c r="AL31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AN31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AO31" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO31" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3317,15 +3683,15 @@
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D32" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>34</v>
@@ -3342,11 +3708,11 @@
       <c r="AL32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AN32" s="1" t="s">
+      <c r="AN32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AO32" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO32" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3354,15 +3720,15 @@
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D33" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>33</v>
@@ -3379,11 +3745,11 @@
       <c r="AL33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN33" s="1" t="s">
+      <c r="AN33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AO33" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO33" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3391,15 +3757,15 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D34" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>2</v>
@@ -3416,11 +3782,11 @@
       <c r="AL34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AN34" s="1" t="s">
+      <c r="AN34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AO34" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO34" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3428,15 +3794,15 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D35" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>35</v>
@@ -3450,11 +3816,11 @@
       <c r="AL35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AN35" s="1" t="s">
+      <c r="AN35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AO35" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO35" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3462,15 +3828,15 @@
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D36" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>15</v>
@@ -3484,11 +3850,11 @@
       <c r="AL36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AN36" s="1" t="s">
+      <c r="AN36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AO36" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO36" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3496,15 +3862,15 @@
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="1">
-        <f>COUNTIF(A$2:A$340,Table1[[#This Row],[unique]])</f>
+      <c r="D37" s="4">
+        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>5</v>
@@ -3518,11 +3884,11 @@
       <c r="AL37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN37" s="1" t="s">
+      <c r="AN37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AO37" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO37" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3545,11 +3911,11 @@
       <c r="AL38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN38" s="1" t="s">
+      <c r="AN38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AO38" s="1">
-        <f>COUNTIF(AL$5:AL$294,Table8[[#This Row],[unique]])</f>
+      <c r="AO38" s="4">
+        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3558,7 +3924,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>14</v>
@@ -3578,7 +3944,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>4</v>
@@ -3598,7 +3964,7 @@
         <v>33</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>2</v>
@@ -3618,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>25</v>
@@ -3638,7 +4004,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>4</v>
@@ -3658,7 +4024,7 @@
         <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>25</v>
@@ -3678,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>34</v>
@@ -3698,7 +4064,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>33</v>
@@ -3718,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>4</v>
@@ -3738,7 +4104,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>2</v>
@@ -3758,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>33</v>
@@ -3778,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>14</v>
@@ -3798,7 +4164,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>27</v>
@@ -3818,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>4</v>
@@ -3838,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>2</v>
@@ -3858,7 +4224,7 @@
         <v>32</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>2</v>
@@ -3878,13 +4244,13 @@
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z55" s="1" t="s">
         <v>10</v>
@@ -3898,13 +4264,13 @@
         <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>3</v>
@@ -3918,13 +4284,13 @@
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>4</v>
@@ -3938,13 +4304,13 @@
         <v>33</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>10</v>
@@ -3958,13 +4324,13 @@
         <v>15</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AL59" s="1" t="s">
         <v>33</v>
@@ -3975,13 +4341,13 @@
         <v>44</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AL60" s="1" t="s">
         <v>4</v>
@@ -3992,13 +4358,13 @@
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AL61" s="1" t="s">
         <v>33</v>
@@ -4015,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AL62" s="1" t="s">
         <v>15</v>
@@ -4032,7 +4398,7 @@
         <v>14</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL63" s="1" t="s">
         <v>44</v>
@@ -4043,13 +4409,13 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL64" s="1" t="s">
         <v>2</v>
@@ -4060,13 +4426,13 @@
         <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AL65" s="1" t="s">
         <v>2</v>
@@ -4083,7 +4449,7 @@
         <v>14</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AL66" s="1" t="s">
         <v>33</v>
@@ -4100,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AL67" s="1" t="s">
         <v>4</v>
@@ -4111,13 +4477,13 @@
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AL68" s="1" t="s">
         <v>35</v>
@@ -4128,13 +4494,13 @@
         <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="AL69" s="1" t="s">
         <v>33</v>
@@ -4145,13 +4511,13 @@
         <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AL70" s="1" t="s">
         <v>4</v>
@@ -4162,13 +4528,13 @@
         <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AL71" s="1" t="s">
         <v>2</v>
@@ -4179,13 +4545,13 @@
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AL72" s="1" t="s">
         <v>10</v>
@@ -4202,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AL73" s="1" t="s">
         <v>4</v>
@@ -4213,13 +4579,13 @@
         <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AL74" s="1" t="s">
         <v>16</v>
@@ -4230,13 +4596,13 @@
         <v>17</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL75" s="1" t="s">
         <v>2</v>
@@ -4247,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="AL76" s="1" t="s">
         <v>35</v>
@@ -4264,13 +4630,13 @@
         <v>15</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AL77" s="1" t="s">
         <v>4</v>
@@ -4281,13 +4647,13 @@
         <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL78" s="1" t="s">
         <v>17</v>
@@ -4298,13 +4664,13 @@
         <v>44</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AL79" s="1" t="s">
         <v>10</v>
@@ -4315,13 +4681,13 @@
         <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL80" s="1" t="s">
         <v>15</v>
@@ -4332,13 +4698,13 @@
         <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AL81" s="1" t="s">
         <v>4</v>
@@ -4349,13 +4715,13 @@
         <v>2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL82" s="1" t="s">
         <v>44</v>
@@ -4366,10 +4732,10 @@
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AL83" s="1" t="s">
         <v>4</v>
@@ -4380,10 +4746,10 @@
         <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="AL84" s="1" t="s">
         <v>5</v>
@@ -4391,13 +4757,13 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AL85" s="1" t="s">
         <v>2</v>
@@ -4405,13 +4771,13 @@
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AL86" s="1" t="s">
         <v>10</v>
@@ -4419,13 +4785,13 @@
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL87" s="1" t="s">
         <v>4</v>
@@ -4433,128 +4799,128 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL88" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL92" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL93" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL94" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -4562,52 +4928,52 @@
         <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AL97" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AL98" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL100" s="1" t="s">
         <v>4</v>
@@ -4615,268 +4981,268 @@
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL103" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL103" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL106" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL106" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL107" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL107" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL109" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL110" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL113" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P114" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AL114" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL115" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AL116" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.2">
@@ -4884,91 +5250,88 @@
         <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL121" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AL126" s="1" t="s">
         <v>19</v>
@@ -4976,46 +5339,46 @@
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL130" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.2">
@@ -5023,29 +5386,29 @@
         <v>19</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL133" s="1" t="s">
         <v>2</v>
@@ -5053,46 +5416,46 @@
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AL134" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AL135" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.2">
@@ -5100,139 +5463,139 @@
         <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AL138" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL143" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL145" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL148" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL150" s="1" t="s">
         <v>4</v>
@@ -5240,10 +5603,10 @@
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL151" s="1" t="s">
         <v>10</v>
@@ -5251,43 +5614,43 @@
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL152" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL155" s="1" t="s">
         <v>44</v>
@@ -5295,51 +5658,51 @@
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL158" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>4</v>
@@ -5350,65 +5713,65 @@
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL164" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL166" s="1" t="s">
         <v>4</v>
@@ -5418,27 +5781,24 @@
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="AL167" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL168" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL169" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.2">
@@ -5451,50 +5811,50 @@
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL174" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL176" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:38" x14ac:dyDescent="0.2">
@@ -5502,60 +5862,60 @@
         <v>25</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL180" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AL181" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL184" s="1" t="s">
         <v>4</v>
@@ -5563,26 +5923,26 @@
     </row>
     <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:38" x14ac:dyDescent="0.2">
@@ -5590,23 +5950,23 @@
         <v>4</v>
       </c>
       <c r="AL188" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL189" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL190" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:38" x14ac:dyDescent="0.2">
@@ -5614,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="AL191" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:38" x14ac:dyDescent="0.2">
@@ -5622,15 +5982,15 @@
         <v>10</v>
       </c>
       <c r="AL192" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL193" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:38" x14ac:dyDescent="0.2">
@@ -5638,108 +5998,108 @@
         <v>10</v>
       </c>
       <c r="AL194" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL195" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL196" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AL197" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL198" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AL199" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AL200" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AL201" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL202" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL203" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL204" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL205" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AL206" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL207" s="1" t="s">
         <v>10</v>
@@ -5747,58 +6107,58 @@
     </row>
     <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL208" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AL209" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL210" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AL211" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AL212" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL213" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AL214" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
@@ -5806,23 +6166,23 @@
         <v>4</v>
       </c>
       <c r="AL215" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AL216" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL217" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
@@ -5830,132 +6190,132 @@
         <v>2</v>
       </c>
       <c r="AL218" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL219" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AL220" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL221" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="AL221" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AL222" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AL223" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL224" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AL225" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AL226" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AL227" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AL228" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL229" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL230" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL231" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL232" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL233" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL234" s="1" t="s">
         <v>5</v>
@@ -5963,34 +6323,34 @@
     </row>
     <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL235" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL236" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL237" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AL237" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AL238" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:38" x14ac:dyDescent="0.2">
@@ -5998,20 +6358,20 @@
         <v>10</v>
       </c>
       <c r="AL239" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AL240" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL241" s="1" t="s">
         <v>4</v>
@@ -6019,7 +6379,7 @@
     </row>
     <row r="242" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL242" s="1" t="s">
         <v>10</v>
@@ -6027,7 +6387,7 @@
     </row>
     <row r="243" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AL243" s="1" t="s">
         <v>4</v>
@@ -6035,47 +6395,47 @@
     </row>
     <row r="244" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL244" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AL245" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="246" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL246" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="AL246" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AL247" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL248" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL249" s="1" t="s">
         <v>4</v>
@@ -6083,162 +6443,162 @@
     </row>
     <row r="250" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL250" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL251" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL252" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL253" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL254" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AL255" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL256" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL257" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL258" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AL259" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AL260" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AL261" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AL262" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AL263" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL264" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AL265" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL266" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL267" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL268" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL269" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:38" x14ac:dyDescent="0.2">
@@ -6246,12 +6606,12 @@
         <v>5</v>
       </c>
       <c r="AL270" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL271" s="1" t="s">
         <v>10</v>
@@ -6259,42 +6619,42 @@
     </row>
     <row r="272" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL272" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AL273" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL274" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AL275" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL276" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:38" x14ac:dyDescent="0.2">
@@ -6302,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="AL277" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:38" x14ac:dyDescent="0.2">
@@ -6310,7 +6670,7 @@
         <v>10</v>
       </c>
       <c r="AL278" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:38" x14ac:dyDescent="0.2">
@@ -6323,15 +6683,15 @@
     </row>
     <row r="280" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL280" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AL281" s="1" t="s">
         <v>4</v>
@@ -6339,18 +6699,18 @@
     </row>
     <row r="282" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL282" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AL283" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:38" x14ac:dyDescent="0.2">
@@ -6358,28 +6718,28 @@
         <v>3</v>
       </c>
       <c r="AL284" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL285" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL286" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AL287" s="1" t="s">
         <v>4</v>
@@ -6390,145 +6750,139 @@
         <v>10</v>
       </c>
       <c r="AL288" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="289" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL289" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL290" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL291" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AL292" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL293" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL294" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="297" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
@@ -6538,57 +6892,57 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
@@ -6598,7 +6952,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
@@ -6608,27 +6962,27 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
@@ -6638,40 +6992,33 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:AO1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="8">
@@ -6685,4 +7032,296 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2CB2F-591C-41C7-B9F2-7C4EA7EF8452}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="F33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="F34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="F35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="F36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/discussion/6_metrics.xlsx
+++ b/data/discussion/6_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA9D45-7669-4D1D-8447-57153910977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F26EA2-E05C-4A4F-BC4F-0FD143F0177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="108">
   <si>
     <t>all</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>cites [Kullback, S., &amp; Leibler, R. A. (1951). On information and sufficiency. The Annals of Mathematical Statistics, 22(1), 79–86], KLD = f(session) (ozog-et-al:2016:21582)</t>
+  </si>
+  <si>
+    <t>problem of map accuracy</t>
+  </si>
+  <si>
+    <t>sun-et-al:2018:2856268</t>
+  </si>
+  <si>
+    <t>voxel classification accuracy</t>
+  </si>
+  <si>
+    <t>as a measure of accuracy loss between full pose graph vs pruned one</t>
+  </si>
+  <si>
+    <t>no metric found to compare map accuracyin the included workds, other than the following ones or visual inspection (only considered in this analysis numerical metrics!)</t>
   </si>
 </sst>
 </file>
@@ -428,9 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -441,11 +453,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -487,12 +551,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -569,7 +627,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -584,61 +642,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1176,7 +1179,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1191,6 +1194,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1209,6 +1218,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,15 +1239,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0FE5511-2FC8-4E65-9792-421D2B63796F}" name="Table1" displayName="Table1" ref="C1:D37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0FE5511-2FC8-4E65-9792-421D2B63796F}" name="Table1" displayName="Table1" ref="C1:D37" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="C1:D37" xr:uid="{B0FE5511-2FC8-4E65-9792-421D2B63796F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D37">
     <sortCondition descending="1" ref="D1:D37"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E36E1705-8910-4200-8189-11A1224DA8E1}" name="unique" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B6B092EE-44B9-45EA-A692-65339B09C273}" name="#count" dataDxfId="2">
-      <calculatedColumnFormula>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E36E1705-8910-4200-8189-11A1224DA8E1}" name="unique" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B6B092EE-44B9-45EA-A692-65339B09C273}" name="#count" dataDxfId="28">
+      <calculatedColumnFormula>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1240,15 +1255,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}" name="Table2" displayName="Table2" ref="H4:I25" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="H4:I25" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:I25">
-    <sortCondition descending="1" ref="I4:I25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}" name="Table2" displayName="Table2" ref="H4:I24" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="H4:I24" xr:uid="{19D944AA-E0D0-4A1F-8B79-F9FE594EA5FF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:I24">
+    <sortCondition descending="1" ref="I4:I24"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3D1727C5-D5F3-4A25-8DDA-DDA7E5CA9157}" name="unique" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9894E244-2CF5-496E-BA07-A1D1784419BB}" name="#count" dataDxfId="28">
-      <calculatedColumnFormula>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3D1727C5-D5F3-4A25-8DDA-DDA7E5CA9157}" name="unique" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9894E244-2CF5-496E-BA07-A1D1784419BB}" name="#count" dataDxfId="24">
+      <calculatedColumnFormula>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1262,9 +1277,9 @@
     <sortCondition descending="1" ref="N4:N27"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9B044373-3F20-4298-BB95-F2ECA8AAAD35}" name="unique" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{408CE44E-0666-4CB7-9ED8-BC5D638C8525}" name="#count" dataDxfId="24">
-      <calculatedColumnFormula>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9B044373-3F20-4298-BB95-F2ECA8AAAD35}" name="unique" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{408CE44E-0666-4CB7-9ED8-BC5D638C8525}" name="#count" dataDxfId="20">
+      <calculatedColumnFormula>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1272,15 +1287,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}" name="Table4" displayName="Table4" ref="R4:S29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="R4:S29" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R5:S29">
-    <sortCondition descending="1" ref="S4:S29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}" name="Table4" displayName="Table4" ref="R4:S28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="R4:S28" xr:uid="{CBBC5210-DAEC-4905-9E38-D9DA3B213CA0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R5:S28">
+    <sortCondition descending="1" ref="S4:S28"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7FD8188D-4FD1-46CE-8D08-CEC4947CB28C}" name="unique" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C24A7A7D-82E1-4494-9FE7-C2807013810B}" name="#count" dataDxfId="20">
-      <calculatedColumnFormula>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7FD8188D-4FD1-46CE-8D08-CEC4947CB28C}" name="unique" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C24A7A7D-82E1-4494-9FE7-C2807013810B}" name="#count" dataDxfId="16">
+      <calculatedColumnFormula>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1288,15 +1303,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}" name="Table5" displayName="Table5" ref="W4:X20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="W4:X20" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W5:X20">
-    <sortCondition descending="1" ref="X4:X20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}" name="Table5" displayName="Table5" ref="W4:X19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="W4:X19" xr:uid="{F8DD002B-5277-4183-AD33-92180C1DFF82}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W5:X19">
+    <sortCondition descending="1" ref="X4:X19"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D86380CA-6157-4666-B5F1-3134864032B6}" name="unique" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D9BDA229-3E96-4B8C-8275-066A22271C6E}" name="#count" dataDxfId="16">
-      <calculatedColumnFormula>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D86380CA-6157-4666-B5F1-3134864032B6}" name="unique" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D9BDA229-3E96-4B8C-8275-066A22271C6E}" name="#count" dataDxfId="12">
+      <calculatedColumnFormula>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1310,8 +1325,8 @@
     <sortCondition descending="1" ref="AC4:AC18"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6B058F42-8679-459A-95E4-9B1CF8B5C283}" name="unique" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0BACEAF3-23A3-47F6-9557-A71B6912F0BD}" name="#count" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{6B058F42-8679-459A-95E4-9B1CF8B5C283}" name="unique" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0BACEAF3-23A3-47F6-9557-A71B6912F0BD}" name="#count" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(Z$5:Z$58,Table6[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1320,14 +1335,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11FC0AA2-AC0B-49F7-8271-2FE1EC6647C4}" name="Table7" displayName="Table7" ref="AH4:AI10" totalsRowShown="0" headerRowDxfId="31" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11FC0AA2-AC0B-49F7-8271-2FE1EC6647C4}" name="Table7" displayName="Table7" ref="AH4:AI10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="AH4:AI10" xr:uid="{11FC0AA2-AC0B-49F7-8271-2FE1EC6647C4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AH5:AI10">
     <sortCondition descending="1" ref="AI4:AI10"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5310725C-63A7-4B3A-98F0-B11E46CC917C}" name="unique" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E68AE35A-D9DC-4279-A0B7-F6033FF3F747}" name="#count" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{5310725C-63A7-4B3A-98F0-B11E46CC917C}" name="unique" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E68AE35A-D9DC-4279-A0B7-F6033FF3F747}" name="#count" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(AF$5:AF$11,Table7[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1336,15 +1351,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{857367F9-CD50-4D2D-9B38-0204D8398338}" name="Table8" displayName="Table8" ref="AN4:AO38" totalsRowShown="0" headerRowDxfId="30" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{857367F9-CD50-4D2D-9B38-0204D8398338}" name="Table8" displayName="Table8" ref="AN4:AO38" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="AN4:AO38" xr:uid="{857367F9-CD50-4D2D-9B38-0204D8398338}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AN5:AO38">
     <sortCondition descending="1" ref="AO4:AO38"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7255F770-168E-4ED8-B0CA-122C507B8875}" name="unique" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E4C1C951-E2D8-42C8-83E4-1DDA9C68EEE3}" name="#count" dataDxfId="5">
-      <calculatedColumnFormula>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7255F770-168E-4ED8-B0CA-122C507B8875}" name="unique" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E4C1C951-E2D8-42C8-83E4-1DDA9C68EEE3}" name="#count" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1614,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP338"/>
+  <dimension ref="A1:AP336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1673,44 +1688,44 @@
       <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
       <c r="AP1" s="2"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
@@ -1721,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>70</v>
       </c>
       <c r="F2" s="2"/>
@@ -1768,14 +1783,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>51</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="2"/>
@@ -1784,7 +1799,7 @@
         <v>39</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="2"/>
@@ -1793,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="S3" s="2"/>
@@ -1802,7 +1817,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="2"/>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="X3" s="2"/>
@@ -1811,7 +1826,7 @@
         <v>42</v>
       </c>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="2"/>
@@ -1819,7 +1834,7 @@
         <v>45</v>
       </c>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI3" s="2"/>
@@ -1829,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="AO3" s="2"/>
@@ -1843,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1932,7 +1947,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1942,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1952,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1962,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="S5" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>20</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -1972,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="X5" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="Z5" s="1" t="s">
@@ -2002,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="AO5" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>67</v>
       </c>
     </row>
@@ -2014,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2024,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2034,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>18</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -2044,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="S6" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>20</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -2054,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="X6" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>5</v>
       </c>
       <c r="Z6" s="1" t="s">
@@ -2084,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="AO6" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>46</v>
       </c>
     </row>
@@ -2096,7 +2111,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2106,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2116,7 +2131,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -2126,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>16</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -2136,7 +2151,7 @@
         <v>14</v>
       </c>
       <c r="X7" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="Z7" s="1" t="s">
@@ -2166,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="AO7" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>32</v>
       </c>
     </row>
@@ -2178,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2188,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2198,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="N8" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -2208,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>9</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -2218,7 +2233,7 @@
         <v>33</v>
       </c>
       <c r="X8" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="Z8" s="1" t="s">
@@ -2248,7 +2263,7 @@
         <v>33</v>
       </c>
       <c r="AO8" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>24</v>
       </c>
     </row>
@@ -2260,7 +2275,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2270,7 +2285,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2280,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -2290,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>8</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -2300,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="X9" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z9" s="1" t="s">
@@ -2330,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="AO9" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>19</v>
       </c>
     </row>
@@ -2342,7 +2357,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2352,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2362,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="N10" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -2372,7 +2387,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -2382,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="X10" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z10" s="1" t="s">
@@ -2412,7 +2427,7 @@
         <v>44</v>
       </c>
       <c r="AO10" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>16</v>
       </c>
     </row>
@@ -2424,7 +2439,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2434,7 +2449,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2444,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -2454,7 +2469,7 @@
         <v>44</v>
       </c>
       <c r="S11" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="U11" s="1" t="s">
@@ -2464,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="X11" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z11" s="1" t="s">
@@ -2487,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="AO11" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>13</v>
       </c>
     </row>
@@ -2499,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2509,7 +2524,7 @@
         <v>33</v>
       </c>
       <c r="I12" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -2519,7 +2534,7 @@
         <v>44</v>
       </c>
       <c r="N12" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -2529,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="S12" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="U12" s="1" t="s">
@@ -2539,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="X12" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -2559,7 +2574,7 @@
         <v>3</v>
       </c>
       <c r="AO12" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>9</v>
       </c>
     </row>
@@ -2571,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2581,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -2591,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="N13" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -2601,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="S13" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="U13" s="1" t="s">
@@ -2611,7 +2626,7 @@
         <v>44</v>
       </c>
       <c r="X13" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z13" s="1" t="s">
@@ -2631,7 +2646,7 @@
         <v>34</v>
       </c>
       <c r="AO13" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>7</v>
       </c>
     </row>
@@ -2643,7 +2658,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2653,7 +2668,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2663,8 +2678,8 @@
         <v>25</v>
       </c>
       <c r="N14" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>32</v>
@@ -2673,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="S14" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -2683,7 +2698,7 @@
         <v>32</v>
       </c>
       <c r="X14" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
@@ -2703,7 +2718,7 @@
         <v>32</v>
       </c>
       <c r="AO14" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
     </row>
@@ -2715,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2725,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -2735,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -2745,7 +2760,7 @@
         <v>19</v>
       </c>
       <c r="S15" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -2755,7 +2770,7 @@
         <v>23</v>
       </c>
       <c r="X15" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -2775,7 +2790,7 @@
         <v>35</v>
       </c>
       <c r="AO15" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
     </row>
@@ -2787,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2797,7 +2812,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2807,27 +2822,27 @@
         <v>8</v>
       </c>
       <c r="N16" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="S16" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
-        <v>1</v>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
+        <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X16" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="s">
@@ -2847,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="AO16" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>6</v>
       </c>
     </row>
@@ -2856,11 +2871,11 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
-        <v>4</v>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -2869,8 +2884,8 @@
         <v>24</v>
       </c>
       <c r="I17" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
+        <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>4</v>
@@ -2879,27 +2894,27 @@
         <v>12</v>
       </c>
       <c r="N17" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S17" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X17" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="s">
@@ -2919,7 +2934,7 @@
         <v>15</v>
       </c>
       <c r="AO17" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>5</v>
       </c>
     </row>
@@ -2928,21 +2943,21 @@
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
-        <v>1</v>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>33</v>
@@ -2951,27 +2966,27 @@
         <v>13</v>
       </c>
       <c r="N18" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S18" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="X18" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z18" s="1" t="s">
@@ -2991,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="AO18" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
     </row>
@@ -3000,20 +3015,20 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
-        <v>3</v>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I19" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3023,27 +3038,27 @@
         <v>9</v>
       </c>
       <c r="N19" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="S19" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="X19" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
+        <f>COUNTIF(U$5:U$33,Table5[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="Z19" s="1" t="s">
@@ -3056,7 +3071,7 @@
         <v>19</v>
       </c>
       <c r="AO19" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>4</v>
       </c>
     </row>
@@ -3065,20 +3080,20 @@
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I20" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3088,28 +3103,21 @@
         <v>32</v>
       </c>
       <c r="N20" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="S20" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" s="4">
-        <f>COUNTIF(U$5:U$34,Table5[[#This Row],[unique]])</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>3</v>
@@ -3118,10 +3126,10 @@
         <v>9</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AO20" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3130,20 +3138,20 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3153,7 +3161,7 @@
         <v>16</v>
       </c>
       <c r="N21" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -3163,11 +3171,11 @@
         <v>1</v>
       </c>
       <c r="S21" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>4</v>
@@ -3176,11 +3184,11 @@
         <v>32</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AO21" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
-        <v>3</v>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -3188,20 +3196,20 @@
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I22" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3211,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -3221,11 +3229,11 @@
         <v>8</v>
       </c>
       <c r="S22" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>10</v>
@@ -3234,10 +3242,10 @@
         <v>4</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AO22" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3246,20 +3254,20 @@
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I23" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3269,7 +3277,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -3279,11 +3287,11 @@
         <v>17</v>
       </c>
       <c r="S23" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>5</v>
@@ -3292,10 +3300,10 @@
         <v>44</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AO23" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>2</v>
       </c>
     </row>
@@ -3304,20 +3312,20 @@
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I24" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
+        <f>COUNTIF(F$5:F$165,Table2[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3327,7 +3335,7 @@
         <v>35</v>
       </c>
       <c r="N24" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -3337,11 +3345,11 @@
         <v>3</v>
       </c>
       <c r="S24" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>10</v>
@@ -3350,11 +3358,11 @@
         <v>2</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AO24" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
-        <v>2</v>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
@@ -3365,18 +3373,11 @@
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="4">
-        <f>COUNTIF(F$5:F$166,Table2[[#This Row],[unique]])</f>
-        <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>18</v>
@@ -3385,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="N25" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -3395,11 +3396,11 @@
         <v>21</v>
       </c>
       <c r="S25" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>26</v>
@@ -3411,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="AO25" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3423,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3436,7 +3437,7 @@
         <v>29</v>
       </c>
       <c r="N26" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -3446,11 +3447,11 @@
         <v>23</v>
       </c>
       <c r="S26" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>10</v>
@@ -3462,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="AO26" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3474,7 +3475,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3487,21 +3488,21 @@
         <v>3</v>
       </c>
       <c r="N27" s="4">
-        <f>COUNTIF(K$5:K$82,Table3[[#This Row],[unique]])</f>
+        <f>COUNTIF(K$5:K$81,Table3[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S27" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>3</v>
@@ -3513,7 +3514,7 @@
         <v>7</v>
       </c>
       <c r="AO27" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3525,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3538,14 +3539,14 @@
         <v>34</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S28" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
+        <f>COUNTIF(P$5:P$123,Table4[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>4</v>
@@ -3557,7 +3558,7 @@
         <v>12</v>
       </c>
       <c r="AO28" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3569,7 +3570,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3581,15 +3582,8 @@
       <c r="P29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29" s="4">
-        <f>COUNTIF(P$5:P$124,Table4[[#This Row],[unique]])</f>
-        <v>1</v>
-      </c>
       <c r="U29" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>10</v>
@@ -3601,7 +3595,7 @@
         <v>13</v>
       </c>
       <c r="AO29" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3613,7 +3607,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3626,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>4</v>
@@ -3638,7 +3632,7 @@
         <v>16</v>
       </c>
       <c r="AO30" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3650,7 +3644,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3663,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>20</v>
@@ -3675,7 +3669,7 @@
         <v>17</v>
       </c>
       <c r="AO31" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3687,7 +3681,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3700,7 +3694,7 @@
         <v>10</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>10</v>
@@ -3712,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="AO32" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3724,11 +3718,11 @@
         <v>23</v>
       </c>
       <c r="D33" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>33</v>
@@ -3737,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>14</v>
@@ -3749,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="AO33" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3761,20 +3755,17 @@
         <v>27</v>
       </c>
       <c r="D34" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>4</v>
@@ -3786,7 +3777,7 @@
         <v>24</v>
       </c>
       <c r="AO34" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3798,11 +3789,11 @@
         <v>29</v>
       </c>
       <c r="D35" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>35</v>
@@ -3820,7 +3811,7 @@
         <v>26</v>
       </c>
       <c r="AO35" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3832,17 +3823,17 @@
         <v>30</v>
       </c>
       <c r="D36" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>14</v>
@@ -3854,7 +3845,7 @@
         <v>29</v>
       </c>
       <c r="AO36" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3866,17 +3857,17 @@
         <v>31</v>
       </c>
       <c r="D37" s="4">
-        <f>COUNTIF(A$2:A$338,Table1[[#This Row],[unique]])</f>
+        <f>COUNTIF(A$2:A$336,Table1[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>28</v>
@@ -3888,7 +3879,7 @@
         <v>30</v>
       </c>
       <c r="AO37" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3903,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>28</v>
@@ -3915,7 +3906,7 @@
         <v>31</v>
       </c>
       <c r="AO38" s="4">
-        <f>COUNTIF(AL$5:AL$292,Table8[[#This Row],[unique]])</f>
+        <f>COUNTIF(AL$5:AL$290,Table8[[#This Row],[unique]])</f>
         <v>1</v>
       </c>
     </row>
@@ -3924,13 +3915,13 @@
         <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>4</v>
@@ -3944,13 +3935,13 @@
         <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>44</v>
@@ -3964,13 +3955,13 @@
         <v>33</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>5</v>
@@ -3984,13 +3975,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>2</v>
@@ -4004,13 +3995,13 @@
         <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>4</v>
@@ -4024,13 +4015,13 @@
         <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>20</v>
@@ -4044,13 +4035,13 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>2</v>
@@ -4064,13 +4055,13 @@
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>10</v>
@@ -4084,13 +4075,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>4</v>
@@ -4104,13 +4095,13 @@
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>5</v>
@@ -4124,13 +4115,13 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z49" s="1" t="s">
         <v>10</v>
@@ -4144,13 +4135,13 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>5</v>
@@ -4164,13 +4155,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>2</v>
@@ -4184,13 +4175,13 @@
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>31</v>
@@ -4204,13 +4195,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>5</v>
@@ -4224,13 +4215,13 @@
         <v>32</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>2</v>
@@ -4244,13 +4235,13 @@
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Z55" s="1" t="s">
         <v>10</v>
@@ -4264,13 +4255,13 @@
         <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>3</v>
@@ -4284,13 +4275,13 @@
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>4</v>
@@ -4304,13 +4295,13 @@
         <v>33</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>10</v>
@@ -4324,13 +4315,13 @@
         <v>15</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AL59" s="1" t="s">
         <v>33</v>
@@ -4341,13 +4332,13 @@
         <v>44</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="AL60" s="1" t="s">
         <v>4</v>
@@ -4358,13 +4349,13 @@
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AL61" s="1" t="s">
         <v>33</v>
@@ -4378,10 +4369,10 @@
         <v>10</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AL62" s="1" t="s">
         <v>15</v>
@@ -4395,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="AL63" s="1" t="s">
         <v>44</v>
@@ -4409,13 +4400,13 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL64" s="1" t="s">
         <v>2</v>
@@ -4426,13 +4417,13 @@
         <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AL65" s="1" t="s">
         <v>2</v>
@@ -4446,10 +4437,10 @@
         <v>10</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AL66" s="1" t="s">
         <v>33</v>
@@ -4463,10 +4454,10 @@
         <v>10</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AL67" s="1" t="s">
         <v>4</v>
@@ -4477,13 +4468,13 @@
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AL68" s="1" t="s">
         <v>35</v>
@@ -4494,13 +4485,13 @@
         <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AL69" s="1" t="s">
         <v>33</v>
@@ -4511,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AL70" s="1" t="s">
         <v>4</v>
@@ -4528,13 +4519,13 @@
         <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AL71" s="1" t="s">
         <v>2</v>
@@ -4545,13 +4536,13 @@
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AL72" s="1" t="s">
         <v>10</v>
@@ -4565,10 +4556,10 @@
         <v>26</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AL73" s="1" t="s">
         <v>4</v>
@@ -4579,13 +4570,13 @@
         <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AL74" s="1" t="s">
         <v>16</v>
@@ -4596,13 +4587,13 @@
         <v>17</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AL75" s="1" t="s">
         <v>2</v>
@@ -4613,13 +4604,13 @@
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AL76" s="1" t="s">
         <v>35</v>
@@ -4630,13 +4621,13 @@
         <v>15</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AL77" s="1" t="s">
         <v>4</v>
@@ -4647,13 +4638,13 @@
         <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AL78" s="1" t="s">
         <v>17</v>
@@ -4664,13 +4655,13 @@
         <v>44</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AL79" s="1" t="s">
         <v>10</v>
@@ -4681,13 +4672,13 @@
         <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL80" s="1" t="s">
         <v>15</v>
@@ -4698,13 +4689,13 @@
         <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AL81" s="1" t="s">
         <v>4</v>
@@ -4715,13 +4706,10 @@
         <v>2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AL82" s="1" t="s">
         <v>44</v>
@@ -4732,10 +4720,10 @@
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="AL83" s="1" t="s">
         <v>4</v>
@@ -4746,10 +4734,10 @@
         <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="AL84" s="1" t="s">
         <v>5</v>
@@ -4760,10 +4748,10 @@
         <v>35</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AL85" s="1" t="s">
         <v>2</v>
@@ -4774,10 +4762,10 @@
         <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL86" s="1" t="s">
         <v>10</v>
@@ -4802,7 +4790,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>33</v>
@@ -4816,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>4</v>
@@ -4830,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>5</v>
@@ -4844,7 +4832,7 @@
         <v>33</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>2</v>
@@ -4858,7 +4846,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>4</v>
@@ -4872,7 +4860,7 @@
         <v>19</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>2</v>
@@ -4886,7 +4874,7 @@
         <v>33</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>33</v>
@@ -4900,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>24</v>
@@ -4914,7 +4902,7 @@
         <v>19</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>32</v>
@@ -4928,7 +4916,7 @@
         <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>4</v>
@@ -4942,7 +4930,7 @@
         <v>33</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>44</v>
@@ -4956,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>2</v>
@@ -4970,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>33</v>
@@ -4984,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>2</v>
@@ -4998,7 +4986,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>14</v>
@@ -5012,7 +5000,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P103" s="1" t="s">
         <v>28</v>
@@ -5026,7 +5014,7 @@
         <v>20</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P104" s="1" t="s">
         <v>15</v>
@@ -5040,7 +5028,7 @@
         <v>44</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P105" s="1" t="s">
         <v>10</v>
@@ -5054,10 +5042,10 @@
         <v>33</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AL106" s="1" t="s">
         <v>20</v>
@@ -5068,10 +5056,10 @@
         <v>2</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL107" s="1" t="s">
         <v>44</v>
@@ -5082,10 +5070,10 @@
         <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL108" s="1" t="s">
         <v>33</v>
@@ -5096,10 +5084,10 @@
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL109" s="1" t="s">
         <v>14</v>
@@ -5110,10 +5098,10 @@
         <v>10</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AL110" s="1" t="s">
         <v>4</v>
@@ -5124,10 +5112,10 @@
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL111" s="1" t="s">
         <v>2</v>
@@ -5141,7 +5129,7 @@
         <v>10</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL112" s="1" t="s">
         <v>21</v>
@@ -5155,7 +5143,7 @@
         <v>10</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AL113" s="1" t="s">
         <v>33</v>
@@ -5166,10 +5154,10 @@
         <v>2</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL114" s="1" t="s">
         <v>4</v>
@@ -5180,10 +5168,10 @@
         <v>21</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AL115" s="1" t="s">
         <v>10</v>
@@ -5194,10 +5182,10 @@
         <v>33</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AL116" s="1" t="s">
         <v>22</v>
@@ -5208,10 +5196,10 @@
         <v>17</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL117" s="1" t="s">
         <v>4</v>
@@ -5222,10 +5210,10 @@
         <v>10</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL118" s="1" t="s">
         <v>4</v>
@@ -5236,10 +5224,10 @@
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL119" s="1" t="s">
         <v>20</v>
@@ -5250,10 +5238,10 @@
         <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL120" s="1" t="s">
         <v>20</v>
@@ -5267,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL121" s="1" t="s">
         <v>32</v>
@@ -5281,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL122" s="1" t="s">
         <v>5</v>
@@ -5295,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AL123" s="1" t="s">
         <v>35</v>
@@ -5308,9 +5296,6 @@
       <c r="F124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P124" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="AL124" s="1" t="s">
         <v>19</v>
       </c>
@@ -5419,7 +5404,7 @@
         <v>15</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AL134" s="1" t="s">
         <v>34</v>
@@ -5430,7 +5415,7 @@
         <v>44</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL135" s="1" t="s">
         <v>33</v>
@@ -5441,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL136" s="1" t="s">
         <v>4</v>
@@ -5452,7 +5437,7 @@
         <v>32</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AL137" s="1" t="s">
         <v>10</v>
@@ -5463,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AL138" s="1" t="s">
         <v>2</v>
@@ -5474,7 +5459,7 @@
         <v>34</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AL139" s="1" t="s">
         <v>35</v>
@@ -5485,7 +5470,7 @@
         <v>33</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AL140" s="1" t="s">
         <v>20</v>
@@ -5507,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL142" s="1" t="s">
         <v>15</v>
@@ -5518,7 +5503,7 @@
         <v>10</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL143" s="1" t="s">
         <v>5</v>
@@ -5529,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL144" s="1" t="s">
         <v>2</v>
@@ -5540,7 +5525,7 @@
         <v>35</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL145" s="1" t="s">
         <v>2</v>
@@ -5551,7 +5536,7 @@
         <v>23</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL146" s="1" t="s">
         <v>33</v>
@@ -5562,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL147" s="1" t="s">
         <v>3</v>
@@ -5573,7 +5558,7 @@
         <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL148" s="1" t="s">
         <v>4</v>
@@ -5584,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL149" s="1" t="s">
         <v>10</v>
@@ -5595,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL150" s="1" t="s">
         <v>4</v>
@@ -5606,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL151" s="1" t="s">
         <v>10</v>
@@ -5617,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL152" s="1" t="s">
         <v>10</v>
@@ -5628,7 +5613,7 @@
         <v>33</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AL153" s="1" t="s">
         <v>44</v>
@@ -5639,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL154" s="1" t="s">
         <v>4</v>
@@ -5650,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL155" s="1" t="s">
         <v>44</v>
@@ -5661,7 +5646,7 @@
         <v>10</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL156" s="1" t="s">
         <v>24</v>
@@ -5672,7 +5657,7 @@
         <v>15</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL157" s="1" t="s">
         <v>2</v>
@@ -5683,10 +5668,10 @@
         <v>20</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL158" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
@@ -5697,7 +5682,7 @@
         <v>4</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
@@ -5705,10 +5690,10 @@
         <v>14</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL160" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.2">
@@ -5716,10 +5701,10 @@
         <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.2">
@@ -5727,10 +5712,10 @@
         <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.2">
@@ -5738,10 +5723,10 @@
         <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.2">
@@ -5749,10 +5734,10 @@
         <v>10</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL164" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:38" x14ac:dyDescent="0.2">
@@ -5760,21 +5745,18 @@
         <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="AL166" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.2">
@@ -5790,7 +5772,7 @@
         <v>10</v>
       </c>
       <c r="AL168" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.2">
@@ -5798,7 +5780,7 @@
         <v>44</v>
       </c>
       <c r="AL169" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.2">
@@ -5806,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.2">
@@ -5814,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:38" x14ac:dyDescent="0.2">
@@ -5822,7 +5804,7 @@
         <v>44</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:38" x14ac:dyDescent="0.2">
@@ -5830,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:38" x14ac:dyDescent="0.2">
@@ -5838,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="AL174" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:38" x14ac:dyDescent="0.2">
@@ -5846,7 +5828,7 @@
         <v>25</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:38" x14ac:dyDescent="0.2">
@@ -5854,31 +5836,31 @@
         <v>4</v>
       </c>
       <c r="AL176" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:38" x14ac:dyDescent="0.2">
@@ -5886,44 +5868,44 @@
         <v>26</v>
       </c>
       <c r="AL180" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AL181" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL185" s="1" t="s">
         <v>2</v>
@@ -5931,242 +5913,242 @@
     </row>
     <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL188" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL189" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL190" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL191" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL192" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL193" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL194" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL195" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL196" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AL197" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AL198" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL199" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AL200" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AL201" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AL202" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AL203" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AL204" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL205" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AL206" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL207" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AL208" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AL209" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL210" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL211" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL212" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AL213" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AL214" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL215" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
@@ -6174,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="AL216" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
@@ -6182,124 +6164,124 @@
         <v>2</v>
       </c>
       <c r="AL217" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL218" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AL219" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AL220" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL221" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AL222" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AL223" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AL224" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL225" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AL226" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AL227" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="AL228" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL229" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL230" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL231" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL232" s="1" t="s">
         <v>5</v>
@@ -6307,55 +6289,55 @@
     </row>
     <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL233" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="AL234" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL235" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AL235" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL236" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL237" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL238" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL239" s="1" t="s">
         <v>4</v>
@@ -6363,7 +6345,7 @@
     </row>
     <row r="240" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AL240" s="1" t="s">
         <v>10</v>
@@ -6371,7 +6353,7 @@
     </row>
     <row r="241" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AL241" s="1" t="s">
         <v>4</v>
@@ -6379,47 +6361,47 @@
     </row>
     <row r="242" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL242" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL243" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL244" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="AL244" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AL245" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL246" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL247" s="1" t="s">
         <v>4</v>
@@ -6427,26 +6409,26 @@
     </row>
     <row r="248" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL248" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL249" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL250" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:38" x14ac:dyDescent="0.2">
@@ -6454,135 +6436,135 @@
         <v>10</v>
       </c>
       <c r="AL251" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL252" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL253" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL254" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL255" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL256" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AL257" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AL258" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AL259" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL260" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL261" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL262" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="263" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AL263" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL264" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL265" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL266" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL267" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:38" x14ac:dyDescent="0.2">
@@ -6590,12 +6572,12 @@
         <v>5</v>
       </c>
       <c r="AL268" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL269" s="1" t="s">
         <v>10</v>
@@ -6603,42 +6585,42 @@
     </row>
     <row r="270" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL270" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AL271" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL272" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AL273" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL274" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:38" x14ac:dyDescent="0.2">
@@ -6646,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="AL275" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:38" x14ac:dyDescent="0.2">
@@ -6654,7 +6636,7 @@
         <v>10</v>
       </c>
       <c r="AL276" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:38" x14ac:dyDescent="0.2">
@@ -6667,15 +6649,15 @@
     </row>
     <row r="278" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL278" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AL279" s="1" t="s">
         <v>4</v>
@@ -6683,18 +6665,18 @@
     </row>
     <row r="280" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL280" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AL281" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:38" x14ac:dyDescent="0.2">
@@ -6702,28 +6684,28 @@
         <v>3</v>
       </c>
       <c r="AL282" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL283" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL284" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AL285" s="1" t="s">
         <v>4</v>
@@ -6734,145 +6716,139 @@
         <v>10</v>
       </c>
       <c r="AL286" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="287" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL287" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL288" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL289" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AL290" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL291" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL292" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="295" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
@@ -6882,57 +6858,57 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
@@ -6942,7 +6918,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
@@ -6952,27 +6928,27 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
@@ -6982,36 +6958,26 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7036,7 +7002,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2CB2F-591C-41C7-B9F2-7C4EA7EF8452}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7051,12 +7017,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -7064,7 +7030,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -7072,7 +7038,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -7080,7 +7046,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -7088,7 +7054,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -7096,7 +7062,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -7104,7 +7070,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -7112,7 +7078,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -7125,12 +7091,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -7138,7 +7104,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -7151,12 +7117,12 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -7164,7 +7130,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -7172,7 +7138,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -7180,12 +7146,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -7193,7 +7159,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -7201,7 +7167,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
@@ -7212,12 +7178,12 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -7225,7 +7191,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -7233,7 +7199,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -7241,31 +7207,31 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="F33" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="F34" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="F35" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="F36" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -7273,10 +7239,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -7284,7 +7250,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7297,7 +7263,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -7305,7 +7271,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -7313,11 +7279,35 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
